--- a/api/app_api/backlog/email_verification/username_field__negative.xlsx
+++ b/api/app_api/backlog/email_verification/username_field__negative.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\reset_password\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\api\app_api\backlog\email_verification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE3D3A-28B1-45B5-A664-1F6446646580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F7299-07AA-4482-A8DF-A9775FD34F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="reset_password" sheetId="1" r:id="rId1"/>
+    <sheet name="username" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>verify username field with invalid email format containing an incomplete domain</t>
-  </si>
-  <si>
-    <t>Test Scenario: Reset Password Username Field (Negative)</t>
   </si>
   <si>
     <t>1. open the postman
@@ -562,6 +559,9 @@
 4. fill the other required field with valid credentials and goto username field
 5. send the request with invalid email format containing an incomplete local part
 6. review the response status code.</t>
+  </si>
+  <si>
+    <t>Test Scenario: Username Field (Negative)</t>
   </si>
 </sst>
 </file>
@@ -874,11 +874,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -886,11 +882,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -903,89 +897,12 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+        <vertical style="thin">
           <color indexed="64"/>
-        </left>
-        <right style="thin">
+        </vertical>
+        <horizontal style="thin">
           <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1023,6 +940,93 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1039,6 +1043,71 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1089,7 +1158,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1101,7 +1174,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1114,45 +1187,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1191,7 +1225,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1199,9 +1237,11 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1214,46 +1254,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1806,13 +1806,13 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G7" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="12" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="verify username field with empty value" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST)_x000a_4. fill the other required field with valid credentials and goto username field_x000a_5. send the request with empty value_x000a_6. review the response status code." dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="post request should return an error response with status code 400" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="7" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" totalsRowLabel="SYM-API-SP-004" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" totalsRowLabel="1. needs to have postman install_x000a_2. needs to have proper defination in the documentation" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Title/Description" totalsRowLabel="verify username field with empty value" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Steps" totalsRowLabel="1. open the postman_x000a_2. create or open the saved request_x000a_3. define request(method -POST)_x000a_4. fill the other required field with valid credentials and goto username field_x000a_5. send the request with empty value_x000a_6. review the response status code." dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected result:" totalsRowLabel="post request should return an error response with status code 400" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Pass / Fail" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comments" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Template-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2023,7 +2023,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2040,7 +2040,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -2149,7 +2149,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>30</v>
@@ -2189,7 +2189,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>30</v>
@@ -2227,7 +2227,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>51</v>
@@ -2265,7 +2265,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>30</v>
@@ -2303,7 +2303,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>30</v>
@@ -2341,7 +2341,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>32</v>
@@ -2379,7 +2379,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>32</v>
@@ -2417,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>52</v>
@@ -2455,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>30</v>
@@ -2493,7 +2493,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>30</v>
@@ -2531,7 +2531,7 @@
         <v>72</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>30</v>
@@ -2569,7 +2569,7 @@
         <v>73</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>30</v>
@@ -2607,7 +2607,7 @@
         <v>74</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>30</v>
@@ -2645,7 +2645,7 @@
         <v>75</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>30</v>
@@ -2683,7 +2683,7 @@
         <v>76</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>30</v>
@@ -2721,7 +2721,7 @@
         <v>77</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>30</v>
@@ -2759,7 +2759,7 @@
         <v>78</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>30</v>
@@ -2797,7 +2797,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>30</v>
@@ -2835,7 +2835,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>30</v>
@@ -2873,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>30</v>
@@ -2911,7 +2911,7 @@
         <v>38</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>30</v>
@@ -2949,7 +2949,7 @@
         <v>81</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>30</v>
@@ -2987,7 +2987,7 @@
         <v>82</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>30</v>
@@ -3025,7 +3025,7 @@
         <v>83</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>30</v>
@@ -3063,7 +3063,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>30</v>
@@ -3101,7 +3101,7 @@
         <v>47</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>30</v>
@@ -3139,7 +3139,7 @@
         <v>48</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>30</v>
@@ -3177,7 +3177,7 @@
         <v>49</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>30</v>
@@ -3215,7 +3215,7 @@
         <v>84</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>30</v>
@@ -3253,7 +3253,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>54</v>
@@ -3291,7 +3291,7 @@
         <v>62</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>30</v>
@@ -3329,7 +3329,7 @@
         <v>63</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>30</v>
@@ -3367,7 +3367,7 @@
         <v>64</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>61</v>
@@ -3405,7 +3405,7 @@
         <v>65</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="19" t="s">
         <v>30</v>
@@ -3443,7 +3443,7 @@
         <v>66</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>30</v>
